--- a/results/accuracy/OpenVINO-2022.2-public_models-18-06-2023.xlsx
+++ b/results/accuracy/OpenVINO-2022.2-public_models-18-06-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="333">
   <si>
     <t>Task type</t>
   </si>
@@ -34,15 +34,27 @@
     <t>FP32</t>
   </si>
   <si>
+    <t>FP16</t>
+  </si>
+  <si>
     <t>INT8</t>
   </si>
   <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>MYRIAD</t>
+  </si>
+  <si>
+    <t>OpenVINO DLDT</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Core(TM) i7-8700 CPU @ 3.20GHz, CPU family: x86_64, GPU: Intel(R) Gen9 HD Graphics (iGPU), RAM size: 65714744 kB, OS family: Linux, OS version: Linux-5.15.0-71-generic-x86_64-with-glibc2.29, Python version: 3.8.10</t>
+  </si>
+  <si>
     <t>CPU</t>
   </si>
   <si>
-    <t>OpenVINO DLDT</t>
-  </si>
-  <si>
     <t>CPU: Intel(R) Xeon(R) Gold 6138 CPU @ 2.00GHz, CPU family: x86_64, GPU: Undefined, RAM size: 526963316 kB, OS family: Linux, OS version: Linux-5.15.0-71-generic-x86_64-with-glibc2.29, Python version: 3.8.10</t>
   </si>
   <si>
@@ -67,6 +79,15 @@
     <t>56.41%</t>
   </si>
   <si>
+    <t>56.61%</t>
+  </si>
+  <si>
+    <t>56.56%</t>
+  </si>
+  <si>
+    <t>56.59%</t>
+  </si>
+  <si>
     <t>accuracy@top5</t>
   </si>
   <si>
@@ -76,6 +97,15 @@
     <t>79.69%</t>
   </si>
   <si>
+    <t>79.82%</t>
+  </si>
+  <si>
+    <t>79.73%</t>
+  </si>
+  <si>
+    <t>79.79%</t>
+  </si>
+  <si>
     <t>caffenet</t>
   </si>
   <si>
@@ -85,12 +115,24 @@
     <t>56.62%</t>
   </si>
   <si>
+    <t>56.69%</t>
+  </si>
+  <si>
+    <t>56.75%</t>
+  </si>
+  <si>
     <t>79.91%</t>
   </si>
   <si>
     <t>79.76%</t>
   </si>
   <si>
+    <t>79.93%</t>
+  </si>
+  <si>
+    <t>79.84%</t>
+  </si>
+  <si>
     <t>densenet-121</t>
   </si>
   <si>
@@ -100,12 +142,27 @@
     <t>73.81%</t>
   </si>
   <si>
+    <t>74.45%</t>
+  </si>
+  <si>
+    <t>74.11%</t>
+  </si>
+  <si>
+    <t>74.55%</t>
+  </si>
+  <si>
     <t>92.14%</t>
   </si>
   <si>
     <t>91.73%</t>
   </si>
   <si>
+    <t>92.13%</t>
+  </si>
+  <si>
+    <t>91.87%</t>
+  </si>
+  <si>
     <t>densenet-121-tf</t>
   </si>
   <si>
@@ -118,12 +175,21 @@
     <t>73.74%</t>
   </si>
   <si>
-    <t>92.13%</t>
+    <t>74.49%</t>
+  </si>
+  <si>
+    <t>74.06%</t>
   </si>
   <si>
     <t>91.67%</t>
   </si>
   <si>
+    <t>91.83%</t>
+  </si>
+  <si>
+    <t>92.16%</t>
+  </si>
+  <si>
     <t>hbonet-0.25</t>
   </si>
   <si>
@@ -133,12 +199,27 @@
     <t>52.72%</t>
   </si>
   <si>
+    <t>57.37%</t>
+  </si>
+  <si>
+    <t>53.24%</t>
+  </si>
+  <si>
+    <t>57.30%</t>
+  </si>
+  <si>
     <t>79.86%</t>
   </si>
   <si>
     <t>76.06%</t>
   </si>
   <si>
+    <t>79.83%</t>
+  </si>
+  <si>
+    <t>76.46%</t>
+  </si>
+  <si>
     <t>efficientnet-b0</t>
   </si>
   <si>
@@ -148,12 +229,30 @@
     <t>73.65%</t>
   </si>
   <si>
+    <t>75.74%</t>
+  </si>
+  <si>
+    <t>74.52%</t>
+  </si>
+  <si>
+    <t>74.19%</t>
+  </si>
+  <si>
     <t>92.76%</t>
   </si>
   <si>
     <t>91.76%</t>
   </si>
   <si>
+    <t>92.77%</t>
+  </si>
+  <si>
+    <t>92.11%</t>
+  </si>
+  <si>
+    <t>91.94%</t>
+  </si>
+  <si>
     <t>efficientnet-b0-pytorch</t>
   </si>
   <si>
@@ -166,12 +265,27 @@
     <t>75.87%</t>
   </si>
   <si>
+    <t>76.56%</t>
+  </si>
+  <si>
+    <t>77.61%</t>
+  </si>
+  <si>
     <t>93.52%</t>
   </si>
   <si>
     <t>92.64%</t>
   </si>
   <si>
+    <t>93.54%</t>
+  </si>
+  <si>
+    <t>92.92%</t>
+  </si>
+  <si>
+    <t>93.55%</t>
+  </si>
+  <si>
     <t>googlenet-v1</t>
   </si>
   <si>
@@ -181,12 +295,24 @@
     <t>68.75%</t>
   </si>
   <si>
+    <t>68.93%</t>
+  </si>
+  <si>
+    <t>68.69%</t>
+  </si>
+  <si>
     <t>89.14%</t>
   </si>
   <si>
     <t>88.99%</t>
   </si>
   <si>
+    <t>89.03%</t>
+  </si>
+  <si>
+    <t>89.12%</t>
+  </si>
+  <si>
     <t>googlenet-v2</t>
   </si>
   <si>
@@ -196,12 +322,27 @@
     <t>71.76%</t>
   </si>
   <si>
+    <t>71.98%</t>
+  </si>
+  <si>
+    <t>72.00%</t>
+  </si>
+  <si>
     <t>90.86%</t>
   </si>
   <si>
     <t>90.77%</t>
   </si>
   <si>
+    <t>90.83%</t>
+  </si>
+  <si>
+    <t>90.84%</t>
+  </si>
+  <si>
+    <t>90.75%</t>
+  </si>
+  <si>
     <t>googlenet-v3</t>
   </si>
   <si>
@@ -211,12 +352,27 @@
     <t>77.96%</t>
   </si>
   <si>
+    <t>77.88%</t>
+  </si>
+  <si>
+    <t>77.80%</t>
+  </si>
+  <si>
     <t>93.80%</t>
   </si>
   <si>
     <t>93.84%</t>
   </si>
   <si>
+    <t>93.82%</t>
+  </si>
+  <si>
+    <t>93.79%</t>
+  </si>
+  <si>
+    <t>93.76%</t>
+  </si>
+  <si>
     <t>googlenet-v3-pytorch</t>
   </si>
   <si>
@@ -226,12 +382,27 @@
     <t>77.54%</t>
   </si>
   <si>
+    <t>77.65%</t>
+  </si>
+  <si>
+    <t>77.58%</t>
+  </si>
+  <si>
+    <t>77.73%</t>
+  </si>
+  <si>
     <t>93.71%</t>
   </si>
   <si>
     <t>93.65%</t>
   </si>
   <si>
+    <t>93.68%</t>
+  </si>
+  <si>
+    <t>93.63%</t>
+  </si>
+  <si>
     <t>googlenet-v4-tf</t>
   </si>
   <si>
@@ -241,12 +412,24 @@
     <t>80.18%</t>
   </si>
   <si>
+    <t>80.15%</t>
+  </si>
+  <si>
+    <t>80.02%</t>
+  </si>
+  <si>
     <t>95.20%</t>
   </si>
   <si>
     <t>95.24%</t>
   </si>
   <si>
+    <t>95.21%</t>
+  </si>
+  <si>
+    <t>95.10%</t>
+  </si>
+  <si>
     <t>googlenet-v1-tf</t>
   </si>
   <si>
@@ -256,12 +439,24 @@
     <t>69.62%</t>
   </si>
   <si>
+    <t>69.82%</t>
+  </si>
+  <si>
+    <t>69.90%</t>
+  </si>
+  <si>
     <t>89.61%</t>
   </si>
   <si>
     <t>89.53%</t>
   </si>
   <si>
+    <t>89.56%</t>
+  </si>
+  <si>
+    <t>89.60%</t>
+  </si>
+  <si>
     <t>inception-resnet-v2-tf</t>
   </si>
   <si>
@@ -271,12 +466,27 @@
     <t>77.77%</t>
   </si>
   <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>77.72%</t>
+  </si>
+  <si>
+    <t>77.59%</t>
+  </si>
+  <si>
     <t>94.03%</t>
   </si>
   <si>
     <t>94.02%</t>
   </si>
   <si>
+    <t>94.01%</t>
+  </si>
+  <si>
+    <t>93.96%</t>
+  </si>
+  <si>
     <t>mobilenet-v1-0.25-128</t>
   </si>
   <si>
@@ -286,12 +496,30 @@
     <t>39.72%</t>
   </si>
   <si>
+    <t>41.50%</t>
+  </si>
+  <si>
+    <t>40.47%</t>
+  </si>
+  <si>
+    <t>41.32%</t>
+  </si>
+  <si>
     <t>66.35%</t>
   </si>
   <si>
     <t>64.34%</t>
   </si>
   <si>
+    <t>66.30%</t>
+  </si>
+  <si>
+    <t>65.01%</t>
+  </si>
+  <si>
+    <t>66.24%</t>
+  </si>
+  <si>
     <t>mobilenet-v1-1.0-224</t>
   </si>
   <si>
@@ -301,12 +529,24 @@
     <t>69.23%</t>
   </si>
   <si>
+    <t>69.46%</t>
+  </si>
+  <si>
+    <t>69.20%</t>
+  </si>
+  <si>
+    <t>69.45%</t>
+  </si>
+  <si>
     <t>89.24%</t>
   </si>
   <si>
     <t>89.02%</t>
   </si>
   <si>
+    <t>89.15%</t>
+  </si>
+  <si>
     <t>mobilenet-v1-1.0-224-tf</t>
   </si>
   <si>
@@ -316,24 +556,57 @@
     <t>70.88%</t>
   </si>
   <si>
+    <t>71.06%</t>
+  </si>
+  <si>
+    <t>70.81%</t>
+  </si>
+  <si>
+    <t>71.07%</t>
+  </si>
+  <si>
     <t>89.88%</t>
   </si>
   <si>
     <t>89.80%</t>
   </si>
   <si>
+    <t>89.86%</t>
+  </si>
+  <si>
+    <t>89.78%</t>
+  </si>
+  <si>
     <t>mobilenet-v2</t>
   </si>
   <si>
     <t>71.23%</t>
   </si>
   <si>
+    <t>71.25%</t>
+  </si>
+  <si>
+    <t>70.03%</t>
+  </si>
+  <si>
+    <t>71.26%</t>
+  </si>
+  <si>
     <t>90.18%</t>
   </si>
   <si>
     <t>89.32%</t>
   </si>
   <si>
+    <t>90.22%</t>
+  </si>
+  <si>
+    <t>89.44%</t>
+  </si>
+  <si>
+    <t>90.19%</t>
+  </si>
+  <si>
     <t>mobilenet-v2-pytorch</t>
   </si>
   <si>
@@ -343,10 +616,19 @@
     <t>70.91%</t>
   </si>
   <si>
+    <t>71.84%</t>
+  </si>
+  <si>
+    <t>71.49%</t>
+  </si>
+  <si>
+    <t>71.63%</t>
+  </si>
+  <si>
     <t>90.31%</t>
   </si>
   <si>
-    <t>89.86%</t>
+    <t>90.27%</t>
   </si>
   <si>
     <t>mobilenet-v2-1.4-224</t>
@@ -358,12 +640,27 @@
     <t>74.03%</t>
   </si>
   <si>
+    <t>74.86%</t>
+  </si>
+  <si>
+    <t>74.61%</t>
+  </si>
+  <si>
+    <t>74.93%</t>
+  </si>
+  <si>
     <t>92.36%</t>
   </si>
   <si>
     <t>92.02%</t>
   </si>
   <si>
+    <t>92.37%</t>
+  </si>
+  <si>
+    <t>92.38%\</t>
+  </si>
+  <si>
     <t>mobilenet-v2-1.0-224</t>
   </si>
   <si>
@@ -373,12 +670,30 @@
     <t>70.85%</t>
   </si>
   <si>
+    <t>71.83%</t>
+  </si>
+  <si>
+    <t>71.24%</t>
+  </si>
+  <si>
+    <t>71.82%</t>
+  </si>
+  <si>
     <t>90.69%</t>
   </si>
   <si>
     <t>89.92%</t>
   </si>
   <si>
+    <t>90.67%</t>
+  </si>
+  <si>
+    <t>90.14%</t>
+  </si>
+  <si>
+    <t>90.63%</t>
+  </si>
+  <si>
     <t>resnet-50-tf</t>
   </si>
   <si>
@@ -388,12 +703,24 @@
     <t>76.20%</t>
   </si>
   <si>
+    <t>76.36%</t>
+  </si>
+  <si>
+    <t>76.45%</t>
+  </si>
+  <si>
     <t>93.07%</t>
   </si>
   <si>
     <t>92.99%</t>
   </si>
   <si>
+    <t>93.03%</t>
+  </si>
+  <si>
+    <t>93.01%</t>
+  </si>
+  <si>
     <t>resnet-50-pytorch</t>
   </si>
   <si>
@@ -403,12 +730,27 @@
     <t>75.52%</t>
   </si>
   <si>
+    <t>76.12%</t>
+  </si>
+  <si>
+    <t>75.83%</t>
+  </si>
+  <si>
+    <t>76.13%</t>
+  </si>
+  <si>
     <t>92.87%</t>
   </si>
   <si>
     <t>92.66%</t>
   </si>
   <si>
+    <t>92.86%</t>
+  </si>
+  <si>
+    <t>92.90%</t>
+  </si>
+  <si>
     <t>resnet-18-pytorch</t>
   </si>
   <si>
@@ -418,12 +760,24 @@
     <t>69.19%</t>
   </si>
   <si>
+    <t>69.67%</t>
+  </si>
+  <si>
+    <t>69.48%</t>
+  </si>
+  <si>
+    <t>69.68%</t>
+  </si>
+  <si>
     <t>89.08%</t>
   </si>
   <si>
     <t>88.78%</t>
   </si>
   <si>
+    <t>89.05%</t>
+  </si>
+  <si>
     <t>se-inception</t>
   </si>
   <si>
@@ -433,12 +787,27 @@
     <t>75.62%</t>
   </si>
   <si>
+    <t>76.01%</t>
+  </si>
+  <si>
+    <t>75.84%</t>
+  </si>
+  <si>
+    <t>76.03%</t>
+  </si>
+  <si>
     <t>92.97%</t>
   </si>
   <si>
     <t>92.75%</t>
   </si>
   <si>
+    <t>92.80%</t>
+  </si>
+  <si>
+    <t>92.94%</t>
+  </si>
+  <si>
     <t>squeezenet1.0</t>
   </si>
   <si>
@@ -448,12 +817,24 @@
     <t>57.01%</t>
   </si>
   <si>
+    <t>57.64%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
     <t>80.39%</t>
   </si>
   <si>
     <t>80.12%</t>
   </si>
   <si>
+    <t>80.40%</t>
+  </si>
+  <si>
+    <t>80.19%</t>
+  </si>
+  <si>
     <t>squeezenet1.1</t>
   </si>
   <si>
@@ -463,12 +844,27 @@
     <t>57.77%</t>
   </si>
   <si>
+    <t>58.37%</t>
+  </si>
+  <si>
+    <t>57.90%</t>
+  </si>
+  <si>
+    <t>58.39%</t>
+  </si>
+  <si>
     <t>81.01%</t>
   </si>
   <si>
     <t>80.79%</t>
   </si>
   <si>
+    <t>81.02%</t>
+  </si>
+  <si>
+    <t>80.84%</t>
+  </si>
+  <si>
     <t>vgg16</t>
   </si>
   <si>
@@ -478,15 +874,30 @@
     <t>70.89%</t>
   </si>
   <si>
+    <t>71.00%</t>
+  </si>
+  <si>
+    <t>70.95%</t>
+  </si>
+  <si>
+    <t>89.87%</t>
+  </si>
+  <si>
+    <t>89.84%</t>
+  </si>
+  <si>
     <t>vgg19</t>
   </si>
   <si>
-    <t>71.06%</t>
-  </si>
-  <si>
     <t>70.99%</t>
   </si>
   <si>
+    <t>71.02%</t>
+  </si>
+  <si>
+    <t>71.08%</t>
+  </si>
+  <si>
     <t>89.83%</t>
   </si>
   <si>
@@ -502,9 +913,27 @@
     <t>73.89%</t>
   </si>
   <si>
+    <t>74.07%</t>
+  </si>
+  <si>
+    <t>73.91%</t>
+  </si>
+  <si>
+    <t>74.02%</t>
+  </si>
+  <si>
     <t>91.80%</t>
   </si>
   <si>
+    <t>91.82%</t>
+  </si>
+  <si>
+    <t>91.74%</t>
+  </si>
+  <si>
+    <t>91.84%</t>
+  </si>
+  <si>
     <t>mobilenet-v3-large-1.0-224-tf</t>
   </si>
   <si>
@@ -514,12 +943,27 @@
     <t>51.93%</t>
   </si>
   <si>
+    <t>72.58%</t>
+  </si>
+  <si>
+    <t>53.81%</t>
+  </si>
+  <si>
+    <t>71.97%</t>
+  </si>
+  <si>
     <t>91.45%</t>
   </si>
   <si>
     <t>76.42%</t>
   </si>
   <si>
+    <t>78.02%</t>
+  </si>
+  <si>
+    <t>91.00%</t>
+  </si>
+  <si>
     <t>mobilenet-v3-small-1.0-224-tf</t>
   </si>
   <si>
@@ -529,12 +973,21 @@
     <t>51.64%</t>
   </si>
   <si>
+    <t>56.85%</t>
+  </si>
+  <si>
+    <t>53.34%</t>
+  </si>
+  <si>
     <t>81.25%</t>
   </si>
   <si>
     <t>77.27%</t>
   </si>
   <si>
+    <t>78.50%</t>
+  </si>
+  <si>
     <t>octave-resnet-26-0.25</t>
   </si>
   <si>
@@ -544,25 +997,22 @@
     <t>76.08%</t>
   </si>
   <si>
+    <t>76.09%</t>
+  </si>
+  <si>
+    <t>75.91%</t>
+  </si>
+  <si>
     <t>Undefined</t>
   </si>
   <si>
     <t>92.58%</t>
   </si>
   <si>
-    <t>semantic segmentation</t>
-  </si>
-  <si>
-    <t>deeplabv3</t>
-  </si>
-  <si>
-    <t>VOC2012_Segmentation</t>
-  </si>
-  <si>
-    <t>mean_iou</t>
-  </si>
-  <si>
-    <t>68.41%</t>
+    <t>92.56%</t>
+  </si>
+  <si>
+    <t>92.42%</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
@@ -1107,13 +1557,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,33 +1580,53 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1168,1230 +1638,2014 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>130</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>160</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>165</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>180</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>185</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>189</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>194</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>200</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>208</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>231</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>238</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>241</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>248</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>257</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>260</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>281</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>286</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>288</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>180</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>294</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>299</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>303</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>309</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>312</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>319</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>321</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>326</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>176</v>
+        <v>330</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="111">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A5:A70"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2511,14 +3765,14 @@
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A70">
+  <conditionalFormatting sqref="A5:A69">
     <cfRule type="notContainsBlanks" dxfId="3" priority="12">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A70">
     <cfRule type="notContainsBlanks" dxfId="5" priority="14">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
+      <formula>LEN(TRIM(A70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
@@ -2534,9 +3788,9 @@
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:D71">
+  <conditionalFormatting sqref="B70:D70">
     <cfRule type="notContainsBlanks" dxfId="1" priority="10">
-      <formula>LEN(TRIM(B71))&gt;0</formula>
+      <formula>LEN(TRIM(B70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
@@ -2557,70 +3811,144 @@
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E70">
+  <conditionalFormatting sqref="E5:E69">
     <cfRule type="notContainsBlanks" dxfId="2" priority="11">
       <formula>LEN(TRIM(E5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
+  <conditionalFormatting sqref="E70">
     <cfRule type="notContainsBlanks" dxfId="7" priority="16">
-      <formula>LEN(TRIM(E71))&gt;0</formula>
+      <formula>LEN(TRIM(E70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="21">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="20">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="29">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F70">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="24">
+  <conditionalFormatting sqref="F5:F69">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="28">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="26">
-      <formula>LEN(TRIM(F71))&gt;0</formula>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
+      <formula>LEN(TRIM(F70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="21">
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
       <formula>LEN(TRIM(G1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="17">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="18">
+      <formula>LEN(TRIM(G4))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
+      <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="22">
-      <formula>LEN(TRIM(G4))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="6" priority="27">
-      <formula>LEN(TRIM(G4))&gt;0</formula>
+  <conditionalFormatting sqref="G70:H70">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="26">
+      <formula>LEN(TRIM(G70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G70">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="23">
-      <formula>LEN(TRIM(G5))&gt;0</formula>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="23">
+      <formula>LEN(TRIM(I1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="28">
-      <formula>LEN(TRIM(G71))&gt;0</formula>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="19">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="24">
+      <formula>LEN(TRIM(I4))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="6" priority="31">
+      <formula>LEN(TRIM(I4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I69">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="27">
+      <formula>LEN(TRIM(I5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="32">
+      <formula>LEN(TRIM(I70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="35">
+      <formula>LEN(TRIM(J1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="34">
+      <formula>LEN(TRIM(J2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
+      <formula>LEN(TRIM(J4))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="41">
+      <formula>LEN(TRIM(J4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J69">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="40">
+      <formula>LEN(TRIM(J5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
+      <formula>LEN(TRIM(J70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="37">
+      <formula>LEN(TRIM(K1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="33">
+      <formula>LEN(TRIM(K2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="38">
+      <formula>LEN(TRIM(K4))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="6" priority="43">
+      <formula>LEN(TRIM(K4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K69">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="39">
+      <formula>LEN(TRIM(K5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="44">
+      <formula>LEN(TRIM(K70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
